--- a/Oil_Production_Country.xlsx
+++ b/Oil_Production_Country.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/andre_paviani_ab-inbev_com/Documents/Desktop/TechChallenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{42575690-37FD-48D3-9D74-560209DD4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86DE894-C1D3-4419-A756-EB9E84A7C899}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60EBA66F-B4C9-45DD-8F05-B6954C09781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="oil-production-by-country" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'oil-production-by-country'!$A$1:$D$267</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="24">
   <si>
     <t>Entity</t>
   </si>
@@ -37,28 +34,46 @@
     <t>Oil production (TWh)</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
     <t>IRQ</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>Kuwait</t>
   </si>
   <si>
-    <t>NOR</t>
+    <t>KWT</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Russia</t>
   </si>
   <si>
-    <t>OMN</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>QAT</t>
+    <t>RUS</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
@@ -82,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,8 +931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D2">
-        <v>1083.7974999999999</v>
+        <v>358.51154000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,10 +974,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D3">
-        <v>1363.6880000000001</v>
+        <v>350.34323000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D4">
-        <v>1589.8123000000001</v>
+        <v>374.16556000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,10 +1002,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D5">
-        <v>1616.1876</v>
+        <v>396.90588000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D6">
-        <v>1224.6495</v>
+        <v>392.28057999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D7">
-        <v>162.15610000000001</v>
+        <v>398.22037</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,10 +1044,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D8">
-        <v>304.08456000000001</v>
+        <v>406.42509999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,10 +1058,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D9">
-        <v>259.72107</v>
+        <v>421.47179999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D10">
-        <v>288.36446999999998</v>
+        <v>436.17144999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D11">
-        <v>302.68615999999997</v>
+        <v>494.66244999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D12">
-        <v>332.23203000000001</v>
+        <v>530.28345000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,10 +1114,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D13">
-        <v>664.58965999999998</v>
+        <v>612.65923999999995</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,10 +1128,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D14">
-        <v>1211.6783</v>
+        <v>691.94524999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D15">
-        <v>1491.8107</v>
+        <v>780.24549999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D16">
-        <v>1497.8922</v>
+        <v>816.74132999999995</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D17">
-        <v>1440.6339</v>
+        <v>914.19560000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D18">
-        <v>1208.0497</v>
+        <v>948.01917000000003</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,10 +1198,10 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D19">
-        <v>767.86500000000001</v>
+        <v>940.91485999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D20">
-        <v>1162.3728000000001</v>
+        <v>1034.8539000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D21">
-        <v>1045.9281000000001</v>
+        <v>1093.6329000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D22">
-        <v>1139.9894999999999</v>
+        <v>1109.1144999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D23">
-        <v>1222.1901</v>
+        <v>1152.7556999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D24">
-        <v>1387.6790000000001</v>
+        <v>1232.6158</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D25">
-        <v>1392.5464999999999</v>
+        <v>1298.3738000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,10 +1296,10 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D26">
-        <v>1405.0623000000001</v>
+        <v>1326.1353999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D27">
-        <v>1579.3668</v>
+        <v>1306.8227999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D28">
-        <v>1759.7953</v>
+        <v>1281.0779</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,10 +1338,10 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D29">
-        <v>1767.0059000000001</v>
+        <v>1424.1478</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D30">
-        <v>1846.9589000000001</v>
+        <v>1537.4032999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,10 +1366,10 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D31">
-        <v>2275.0127000000002</v>
+        <v>1589.9032</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D32">
-        <v>2530.7145999999998</v>
+        <v>1658.9242999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D33">
-        <v>2586.3009999999999</v>
+        <v>1635.2148</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1408,10 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D34">
-        <v>2640.1547999999998</v>
+        <v>1758.4464</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D35">
-        <v>2723.98</v>
+        <v>1853.1814999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D36">
-        <v>2349.7002000000002</v>
+        <v>1824.885</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,10 +1450,10 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D37">
-        <v>2335.6457999999998</v>
+        <v>1898.2005999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,24 +1464,24 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D38">
-        <v>2573.8366999999998</v>
+        <v>2136.3533000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>2023</v>
+        <v>1987</v>
       </c>
       <c r="D39">
-        <v>2477.6640000000002</v>
+        <v>1050.1238000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,10 +1492,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="D40">
-        <v>500.48599999999999</v>
+        <v>1105.9545000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="D41">
-        <v>582.84069999999997</v>
+        <v>1077.1763000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="D42">
-        <v>662.67205999999999</v>
+        <v>1078.7737999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1534,10 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="D43">
-        <v>871.19269999999995</v>
+        <v>1084.0847000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D44">
-        <v>955.32366999999999</v>
+        <v>1129.9681</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,10 +1562,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D45">
-        <v>1091.3853999999999</v>
+        <v>1189.5297</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,10 +1576,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="D46">
-        <v>1243.2552000000001</v>
+        <v>1240.8297</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,10 +1590,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="D47">
-        <v>1327.3126</v>
+        <v>1301.4706000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,10 +1604,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="D48">
-        <v>1495.4199000000001</v>
+        <v>1342.7246</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,10 +1618,10 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="D49">
-        <v>1609.5884000000001</v>
+        <v>1403.7891999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,10 +1632,10 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D50">
-        <v>1798.7454</v>
+        <v>1454.7723000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +1646,10 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D51">
-        <v>1816.9309000000001</v>
+        <v>1407.1922999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,10 +1660,10 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D52">
-        <v>1739.8503000000001</v>
+        <v>1454.7484999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,10 +1674,10 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="D53">
-        <v>1740.7052000000001</v>
+        <v>1467.3572999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,10 +1688,10 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D54">
-        <v>1881.2117000000001</v>
+        <v>1546.8190999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D55">
-        <v>1893.8620000000001</v>
+        <v>1635.5128</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D56">
-        <v>1842.2108000000001</v>
+        <v>1688.1901</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,10 +1730,10 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D57">
-        <v>1794.8472999999999</v>
+        <v>1659.3552999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D58">
-        <v>1760.8356000000001</v>
+        <v>1756.1113</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,10 +1758,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D59">
-        <v>1622.0526</v>
+        <v>1810.4688000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,10 +1772,10 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D60">
-        <v>1508.6543999999999</v>
+        <v>1782.1812</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,10 +1786,10 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D61">
-        <v>1390.9418000000001</v>
+        <v>1781.1637000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,10 +1800,10 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D62">
-        <v>1348.0365999999999</v>
+        <v>1868.1315</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,10 +1814,10 @@
         <v>7</v>
       </c>
       <c r="C63">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D63">
-        <v>1274.3212000000001</v>
+        <v>1978.6213</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,10 +1828,10 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D64">
-        <v>1157.5992000000001</v>
+        <v>2127.2775999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,10 +1842,10 @@
         <v>7</v>
       </c>
       <c r="C65">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D65">
-        <v>1096.3471999999999</v>
+        <v>2272.614</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,10 +1856,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D66">
-        <v>1019.4412</v>
+        <v>2439.7064999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,10 +1870,10 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D67">
-        <v>970.70579999999995</v>
+        <v>2512.9456</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,10 +1884,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D68">
-        <v>992.65589999999997</v>
+        <v>2545.1667000000002</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,10 +1898,10 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D69">
-        <v>1022.8953</v>
+        <v>2751.9355</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,10 +1912,10 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D70">
-        <v>1054.462</v>
+        <v>2997.5749999999998</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,10 +1926,10 @@
         <v>7</v>
       </c>
       <c r="C71">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D71">
-        <v>1039.1774</v>
+        <v>3064.0650000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,10 +1940,10 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D72">
-        <v>975.30529999999999</v>
+        <v>2931.0239999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,10 +1954,10 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D73">
-        <v>933.9991</v>
+        <v>3100.7773000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="C74">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D74">
-        <v>1078.0875000000001</v>
+        <v>3185.7851999999998</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,38 +1982,38 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D75">
-        <v>1096.1514999999999</v>
+        <v>3231.4110000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>2022</v>
+        <v>1987</v>
       </c>
       <c r="D76">
-        <v>1037.271</v>
+        <v>1560.0482</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>2023</v>
+        <v>1988</v>
       </c>
       <c r="D77">
-        <v>1101.8510000000001</v>
+        <v>1593.8915999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,10 +2024,10 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="D78">
-        <v>324.01085999999998</v>
+        <v>1600.7532000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,10 +2038,10 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="D79">
-        <v>337.41424999999998</v>
+        <v>1608.5453</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,10 +2052,10 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="D80">
-        <v>359.70819999999998</v>
+        <v>1639.7137</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,10 +2066,10 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="D81">
-        <v>372.86066</v>
+        <v>1651.9251999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,10 +2080,10 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="D82">
-        <v>398.20364000000001</v>
+        <v>1675.0688</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,10 +2094,10 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="D83">
-        <v>410.7192</v>
+        <v>1698.9104</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2108,10 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="D84">
-        <v>430.74743999999998</v>
+        <v>1733.1026999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,10 +2122,10 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="D85">
-        <v>451.09174000000002</v>
+        <v>1843.5876000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,10 +2136,10 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="D86">
-        <v>470.46494000000001</v>
+        <v>1862.3119999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="D87">
-        <v>497.84766000000002</v>
+        <v>1862.8933</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,10 +2164,10 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D88">
-        <v>515.96069999999997</v>
+        <v>1863.3586</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,10 +2178,10 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D89">
-        <v>522.30286000000001</v>
+        <v>1891.2705000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,10 +2192,10 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D90">
-        <v>519.99896000000001</v>
+        <v>1916.9729</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,10 +2206,10 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="D91">
-        <v>519.83263999999997</v>
+        <v>1940.6515999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,10 +2220,10 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="D92">
-        <v>546.8981</v>
+        <v>1972.2737</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,10 +2234,10 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D93">
-        <v>545.39197000000001</v>
+        <v>2024.2130999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,10 +2248,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D94">
-        <v>511.85640000000001</v>
+        <v>2109.1343000000002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D95">
-        <v>467.81420000000003</v>
+        <v>2148.8252000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,10 +2276,10 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D96">
-        <v>446.93563999999998</v>
+        <v>2166.8809000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,10 +2290,10 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D97">
-        <v>441.93256000000002</v>
+        <v>2214.8126999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,10 +2304,10 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D98">
-        <v>420.76873999999998</v>
+        <v>2203.7687999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D99">
-        <v>405.16410000000002</v>
+        <v>2361.0529999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,10 +2332,10 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D100">
-        <v>431.13528000000002</v>
+        <v>2359.4421000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,10 +2346,10 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D101">
-        <v>461.24155000000002</v>
+        <v>2412.9692</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D102">
-        <v>490.80489999999998</v>
+        <v>2441.8267000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D103">
-        <v>502.56876</v>
+        <v>2458.9191999999998</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D104">
-        <v>523.34630000000004</v>
+        <v>2495.3328000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,10 +2402,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D105">
-        <v>535.93589999999995</v>
+        <v>2322.3364000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +2416,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D106">
-        <v>537.52650000000006</v>
+        <v>2227.2148000000002</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,10 +2430,10 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D107">
-        <v>558.59969999999998</v>
+        <v>2201.8380999999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,10 +2444,10 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D108">
-        <v>573.54700000000003</v>
+        <v>2228.6338000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,10 +2458,10 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D109">
-        <v>553.17349999999999</v>
+        <v>2265.1635999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,10 +2472,10 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D110">
-        <v>556.19460000000004</v>
+        <v>2312.9859999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D111">
-        <v>550.42650000000003</v>
+        <v>2380.9169999999999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,52 +2500,52 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D112">
-        <v>536.27155000000005</v>
+        <v>2430.9724000000001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C113">
-        <v>2021</v>
+        <v>1987</v>
       </c>
       <c r="D113">
-        <v>544.56946000000005</v>
+        <v>1357.5193999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>2022</v>
+        <v>1988</v>
       </c>
       <c r="D114">
-        <v>598.33356000000003</v>
+        <v>1365.1670999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>2023</v>
+        <v>1989</v>
       </c>
       <c r="D115">
-        <v>588.18799999999999</v>
+        <v>1672.8422</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,10 +2556,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="D116">
-        <v>200.86797999999999</v>
+        <v>1893.2347</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,10 +2570,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="D117">
-        <v>177.60414</v>
+        <v>2027.9332999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,10 +2584,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="D118">
-        <v>205.23705000000001</v>
+        <v>2043.1452999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,10 +2598,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="D119">
-        <v>228.99637000000001</v>
+        <v>2143.3389000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,10 +2612,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="D120">
-        <v>245.6507</v>
+        <v>2151.3699000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,10 +2626,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="D121">
-        <v>237.28729999999999</v>
+        <v>2156.8593999999998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,10 +2640,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="D122">
-        <v>274.47525000000002</v>
+        <v>2170.6435999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,10 +2654,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D123">
-        <v>253.68783999999999</v>
+        <v>2174.3757000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,10 +2668,10 @@
         <v>11</v>
       </c>
       <c r="C124">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D124">
-        <v>248.28113999999999</v>
+        <v>2218.8591000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="D125">
-        <v>253.89716999999999</v>
+        <v>2071.5050999999999</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,10 +2696,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D126">
-        <v>315.21987999999999</v>
+        <v>2229.0666999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,10 +2710,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D127">
-        <v>386.96454</v>
+        <v>2207.4315999999999</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,10 +2724,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="D128">
-        <v>390.20614999999998</v>
+        <v>2083.1981999999998</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,10 +2738,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="D129">
-        <v>398.65539999999999</v>
+        <v>2350.3044</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,10 +2752,10 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D130">
-        <v>467.28426999999999</v>
+        <v>2428.7240000000002</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,10 +2766,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D131">
-        <v>465.19556</v>
+        <v>2417.5408000000002</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,10 +2780,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D132">
-        <v>434.17203000000001</v>
+        <v>2449.5309999999999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,10 +2794,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D133">
-        <v>509.23329999999999</v>
+        <v>2480.1642999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,10 +2808,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="D134">
-        <v>580.29470000000003</v>
+        <v>2505.3982000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,10 +2822,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D135">
-        <v>611.25684000000001</v>
+        <v>2409.9596999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,10 +2836,10 @@
         <v>11</v>
       </c>
       <c r="C136">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D136">
-        <v>659.29989999999998</v>
+        <v>2465.9385000000002</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,10 +2850,10 @@
         <v>11</v>
       </c>
       <c r="C137">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D137">
-        <v>668.26959999999997</v>
+        <v>2471.7042999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,10 +2864,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D138">
-        <v>750.18786999999998</v>
+        <v>2098.9683</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,10 +2878,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D139">
-        <v>725.67804000000001</v>
+        <v>1973.2855999999999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,10 +2892,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D140">
-        <v>824.80579999999998</v>
+        <v>2024.1608000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,10 +2906,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D141">
-        <v>904.16223000000002</v>
+        <v>2096.2253000000001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,10 +2920,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D142">
-        <v>952.57380000000001</v>
+        <v>2513.7600000000002</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,10 +2934,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D143">
-        <v>949.98724000000004</v>
+        <v>2727.6990000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,10 +2948,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D144">
-        <v>928.84209999999996</v>
+        <v>2589.1095999999998</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,10 +2962,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D145">
-        <v>899.89319999999998</v>
+        <v>1880.5202999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,10 +2976,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D146">
-        <v>902.2269</v>
+        <v>1717.4650999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,10 +2990,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D147">
-        <v>869.83574999999996</v>
+        <v>2002.5398</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,10 +3004,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D148">
-        <v>873.32006999999999</v>
+        <v>2096.2383</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,66 +3018,66 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D149">
-        <v>840.89795000000004</v>
+        <v>2492.2883000000002</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>2020</v>
+        <v>1987</v>
       </c>
       <c r="D150">
-        <v>839.1662</v>
+        <v>1363.6880000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151">
-        <v>2021</v>
+        <v>1988</v>
       </c>
       <c r="D151">
-        <v>823.15359999999998</v>
+        <v>1589.8123000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>2022</v>
+        <v>1989</v>
       </c>
       <c r="D152">
-        <v>845.24834999999996</v>
+        <v>1616.1876</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>2023</v>
+        <v>1990</v>
       </c>
       <c r="D153">
-        <v>861.93384000000003</v>
+        <v>1224.6495</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,10 +3088,10 @@
         <v>13</v>
       </c>
       <c r="C154">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="D154">
-        <v>2937.7393000000002</v>
+        <v>162.15610000000001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,10 +3102,10 @@
         <v>13</v>
       </c>
       <c r="C155">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="D155">
-        <v>2484.2624999999998</v>
+        <v>304.08456000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,10 +3116,10 @@
         <v>13</v>
       </c>
       <c r="C156">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="D156">
-        <v>3178.5789</v>
+        <v>259.72107</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,10 +3130,10 @@
         <v>13</v>
       </c>
       <c r="C157">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="D157">
-        <v>3153.7424000000001</v>
+        <v>288.36446999999998</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,10 +3144,10 @@
         <v>13</v>
       </c>
       <c r="C158">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="D158">
-        <v>3984.9459999999999</v>
+        <v>302.68615999999997</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,10 +3158,10 @@
         <v>13</v>
       </c>
       <c r="C159">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="D159">
-        <v>4981.6616000000004</v>
+        <v>332.23203000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,10 +3172,10 @@
         <v>13</v>
       </c>
       <c r="C160">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="D160">
-        <v>5141.3649999999998</v>
+        <v>664.58965999999998</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,10 +3186,10 @@
         <v>13</v>
       </c>
       <c r="C161">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="D161">
-        <v>4992.8829999999998</v>
+        <v>1211.6783</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,10 +3200,10 @@
         <v>13</v>
       </c>
       <c r="C162">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="D162">
-        <v>5026.3212999999996</v>
+        <v>1491.8107</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,10 +3214,10 @@
         <v>13</v>
       </c>
       <c r="C163">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="D163">
-        <v>5015.5874000000003</v>
+        <v>1497.8922</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,10 +3228,10 @@
         <v>13</v>
       </c>
       <c r="C164">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="D164">
-        <v>5087.3779999999997</v>
+        <v>1440.6339</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,10 +3242,10 @@
         <v>13</v>
       </c>
       <c r="C165">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="D165">
-        <v>5024.4160000000002</v>
+        <v>1208.0497</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,10 +3256,10 @@
         <v>13</v>
       </c>
       <c r="C166">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="D166">
-        <v>5178.7772999999997</v>
+        <v>767.86500000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,10 +3270,10 @@
         <v>13</v>
       </c>
       <c r="C167">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="D167">
-        <v>4751.1566999999995</v>
+        <v>1162.3728000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,10 +3284,10 @@
         <v>13</v>
       </c>
       <c r="C168">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D168">
-        <v>5099.9459999999999</v>
+        <v>1045.9281000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,10 +3298,10 @@
         <v>13</v>
       </c>
       <c r="C169">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D169">
-        <v>4974.1143000000002</v>
+        <v>1139.9894999999999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,10 +3312,10 @@
         <v>13</v>
       </c>
       <c r="C170">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="D170">
-        <v>4536.3173999999999</v>
+        <v>1222.1901</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,10 +3326,10 @@
         <v>13</v>
       </c>
       <c r="C171">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="D171">
-        <v>5355.6122999999998</v>
+        <v>1387.6790000000001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,10 +3340,10 @@
         <v>13</v>
       </c>
       <c r="C172">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D172">
-        <v>5731.1166999999996</v>
+        <v>1392.5464999999999</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,10 +3354,10 @@
         <v>13</v>
       </c>
       <c r="C173">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D173">
-        <v>6008.3856999999998</v>
+        <v>1405.0623000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,10 +3368,10 @@
         <v>13</v>
       </c>
       <c r="C174">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="D174">
-        <v>5918.9785000000002</v>
+        <v>1579.3668</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,10 +3382,10 @@
         <v>13</v>
       </c>
       <c r="C175">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D175">
-        <v>5686.37</v>
+        <v>1759.7953</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,10 +3396,10 @@
         <v>13</v>
       </c>
       <c r="C176">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D176">
-        <v>5930.9994999999999</v>
+        <v>1767.0059000000001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,10 +3410,10 @@
         <v>13</v>
       </c>
       <c r="C177">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D177">
-        <v>5338.2543999999998</v>
+        <v>1846.9589000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,10 +3424,10 @@
         <v>13</v>
       </c>
       <c r="C178">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D178">
-        <v>5388.1864999999998</v>
+        <v>2275.0127000000002</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,10 +3438,10 @@
         <v>13</v>
       </c>
       <c r="C179">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D179">
-        <v>6079.0069999999996</v>
+        <v>2530.7145999999998</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,10 +3452,10 @@
         <v>13</v>
       </c>
       <c r="C180">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D180">
-        <v>6387.4926999999998</v>
+        <v>2586.3009999999999</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,10 +3466,10 @@
         <v>13</v>
       </c>
       <c r="C181">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D181">
-        <v>6261.7439999999997</v>
+        <v>2640.1547999999998</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,10 +3480,10 @@
         <v>13</v>
       </c>
       <c r="C182">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D182">
-        <v>6324.6679999999997</v>
+        <v>2723.98</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,10 +3494,10 @@
         <v>13</v>
       </c>
       <c r="C183">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D183">
-        <v>6606.2380000000003</v>
+        <v>2349.7002000000002</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,10 +3508,10 @@
         <v>13</v>
       </c>
       <c r="C184">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D184">
-        <v>6823.4633999999996</v>
+        <v>2335.6457999999998</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,10 +3522,10 @@
         <v>13</v>
       </c>
       <c r="C185">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D185">
-        <v>6504.8850000000002</v>
+        <v>2573.8366999999998</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,80 +3536,80 @@
         <v>13</v>
       </c>
       <c r="C186">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D186">
-        <v>6708.3890000000001</v>
+        <v>2477.6640000000002</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C187">
-        <v>2019</v>
+        <v>1987</v>
       </c>
       <c r="D187">
-        <v>6472.84</v>
+        <v>606.09753000000001</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C188">
-        <v>2020</v>
+        <v>1988</v>
       </c>
       <c r="D188">
-        <v>6042.7489999999998</v>
+        <v>733.22753999999998</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C189">
-        <v>2021</v>
+        <v>1989</v>
       </c>
       <c r="D189">
-        <v>5989.7179999999998</v>
+        <v>795.61632999999995</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C190">
-        <v>2022</v>
+        <v>1990</v>
       </c>
       <c r="D190">
-        <v>6678.308</v>
+        <v>544.24670000000003</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C191">
-        <v>2023</v>
+        <v>1991</v>
       </c>
       <c r="D191">
-        <v>6183.4179999999997</v>
+        <v>107.19352000000001</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,10 +3620,10 @@
         <v>15</v>
       </c>
       <c r="C192">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="D192">
-        <v>751.53589999999997</v>
+        <v>627.50287000000003</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,10 +3634,10 @@
         <v>15</v>
       </c>
       <c r="C193">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="D193">
-        <v>793.14495999999997</v>
+        <v>1123.2483999999999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,10 +3648,10 @@
         <v>15</v>
       </c>
       <c r="C194">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="D194">
-        <v>837.89469999999994</v>
+        <v>1202.0443</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,10 +3662,10 @@
         <v>15</v>
       </c>
       <c r="C195">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="D195">
-        <v>989.44775000000004</v>
+        <v>1219.8585</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,10 +3676,10 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="D196">
-        <v>1083.3516</v>
+        <v>1222.6143</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,10 +3690,10 @@
         <v>15</v>
       </c>
       <c r="C197">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="D197">
-        <v>1242.6837</v>
+        <v>1222.4784999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,10 +3704,10 @@
         <v>15</v>
       </c>
       <c r="C198">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="D198">
-        <v>1368.6174000000001</v>
+        <v>1279.338</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,10 +3718,10 @@
         <v>15</v>
       </c>
       <c r="C199">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="D199">
-        <v>1330.0209</v>
+        <v>1192.7302</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,10 +3732,10 @@
         <v>15</v>
       </c>
       <c r="C200">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="D200">
-        <v>1341.0413000000001</v>
+        <v>1278.0026</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,10 +3746,10 @@
         <v>15</v>
       </c>
       <c r="C201">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="D201">
-        <v>1330.6033</v>
+        <v>1238.9848999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,10 +3760,10 @@
         <v>15</v>
       </c>
       <c r="C202">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="D202">
-        <v>1359.7686000000001</v>
+        <v>1148.5773999999999</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,10 +3774,10 @@
         <v>15</v>
       </c>
       <c r="C203">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="D203">
-        <v>1364.287</v>
+        <v>1344.4739999999999</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,10 +3788,10 @@
         <v>15</v>
       </c>
       <c r="C204">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="D204">
-        <v>1413.2999</v>
+        <v>1433.8255999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,10 +3802,10 @@
         <v>15</v>
       </c>
       <c r="C205">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="D205">
-        <v>1302.896</v>
+        <v>1516.6808000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,10 +3816,10 @@
         <v>15</v>
       </c>
       <c r="C206">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D206">
-        <v>1413.3167000000001</v>
+        <v>1555.5902000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,10 +3830,10 @@
         <v>15</v>
       </c>
       <c r="C207">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D207">
-        <v>1377.1503</v>
+        <v>1512.2474</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,10 +3844,10 @@
         <v>15</v>
       </c>
       <c r="C208">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D208">
-        <v>1267.8834999999999</v>
+        <v>1584.2683999999999</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,10 +3858,10 @@
         <v>15</v>
       </c>
       <c r="C209">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D209">
-        <v>1467.5858000000001</v>
+        <v>1407.5664999999999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,10 +3872,10 @@
         <v>15</v>
       </c>
       <c r="C210">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D210">
-        <v>1526.739</v>
+        <v>1435.0907</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,10 +3886,10 @@
         <v>15</v>
       </c>
       <c r="C211">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D211">
-        <v>1588.1107999999999</v>
+        <v>1638.5554999999999</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,10 +3900,10 @@
         <v>15</v>
       </c>
       <c r="C212">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D212">
-        <v>1693.9802</v>
+        <v>1790.6488999999999</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,10 +3914,10 @@
         <v>15</v>
       </c>
       <c r="C213">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D213">
-        <v>1670.5735</v>
+        <v>1761.1348</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,10 +3928,10 @@
         <v>15</v>
       </c>
       <c r="C214">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D214">
-        <v>1689.2213999999999</v>
+        <v>1747.1170999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,10 +3942,10 @@
         <v>15</v>
       </c>
       <c r="C215">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D215">
-        <v>1498.1176</v>
+        <v>1724.1124</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,10 +3956,10 @@
         <v>15</v>
       </c>
       <c r="C216">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D216">
-        <v>1561.2548999999999</v>
+        <v>1776.3003000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,10 +3970,10 @@
         <v>15</v>
       </c>
       <c r="C217">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D217">
-        <v>1737.4957999999999</v>
+        <v>1685.9867999999999</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,10 +3984,10 @@
         <v>15</v>
       </c>
       <c r="C218">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D218">
-        <v>1801.5314000000001</v>
+        <v>1707.8542</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,10 +3998,10 @@
         <v>15</v>
       </c>
       <c r="C219">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D219">
-        <v>1879.6893</v>
+        <v>1667.5315000000001</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,10 +4012,10 @@
         <v>15</v>
       </c>
       <c r="C220">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D220">
-        <v>1895.0092999999999</v>
+        <v>1525.7699</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,10 +4026,10 @@
         <v>15</v>
       </c>
       <c r="C221">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D221">
-        <v>2036.3232</v>
+        <v>1511.645</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,10 +4040,10 @@
         <v>15</v>
       </c>
       <c r="C222">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D222">
-        <v>2112.0898000000002</v>
+        <v>1696.5132000000001</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,94 +4054,94 @@
         <v>15</v>
       </c>
       <c r="C223">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D223">
-        <v>2034.374</v>
+        <v>1625.4880000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C224">
-        <v>2018</v>
+        <v>1987</v>
       </c>
       <c r="D224">
-        <v>2046.3977</v>
+        <v>6623.0645000000004</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>2019</v>
+        <v>1988</v>
       </c>
       <c r="D225">
-        <v>2092.2188000000001</v>
+        <v>6614.9</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C226">
-        <v>2020</v>
+        <v>1989</v>
       </c>
       <c r="D226">
-        <v>1929.9458999999999</v>
+        <v>6422.3887000000004</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C227">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="D227">
-        <v>1900.77</v>
+        <v>5999.8125</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C228">
-        <v>2022</v>
+        <v>1991</v>
       </c>
       <c r="D228">
-        <v>2106.4877999999999</v>
+        <v>5372.4087</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C229">
-        <v>2023</v>
+        <v>1992</v>
       </c>
       <c r="D229">
-        <v>2047.6648</v>
+        <v>4638.16</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,10 +4152,10 @@
         <v>17</v>
       </c>
       <c r="C230">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="D230">
-        <v>5609.4916999999996</v>
+        <v>4127.1962999999996</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,10 +4166,10 @@
         <v>17</v>
       </c>
       <c r="C231">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="D231">
-        <v>5434.2372999999998</v>
+        <v>3693.4321</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,10 +4180,10 @@
         <v>17</v>
       </c>
       <c r="C232">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="D232">
-        <v>5338.8905999999997</v>
+        <v>3614.0106999999998</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,10 +4194,10 @@
         <v>17</v>
       </c>
       <c r="C233">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="D233">
-        <v>4989.6549999999997</v>
+        <v>3522.4128000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,10 +4208,10 @@
         <v>17</v>
       </c>
       <c r="C234">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="D234">
-        <v>4845.259</v>
+        <v>3575.2946999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,10 +4222,10 @@
         <v>17</v>
       </c>
       <c r="C235">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="D235">
-        <v>4918.2885999999999</v>
+        <v>3539.4740000000002</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,10 +4236,10 @@
         <v>17</v>
       </c>
       <c r="C236">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="D236">
-        <v>4803.5604999999996</v>
+        <v>3544.4520000000002</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,10 +4250,10 @@
         <v>17</v>
       </c>
       <c r="C237">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="D237">
-        <v>4617.1854999999996</v>
+        <v>3798.9470000000001</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,10 +4264,10 @@
         <v>17</v>
       </c>
       <c r="C238">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="D238">
-        <v>4506.6176999999998</v>
+        <v>4090.0337</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,10 +4278,10 @@
         <v>17</v>
       </c>
       <c r="C239">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="D239">
-        <v>4460.7299999999996</v>
+        <v>4462.3774000000003</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,10 +4292,10 @@
         <v>17</v>
       </c>
       <c r="C240">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="D240">
-        <v>4443.3339999999998</v>
+        <v>4951.0513000000001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,10 +4306,10 @@
         <v>17</v>
       </c>
       <c r="C241">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="D241">
-        <v>4418.8193000000001</v>
+        <v>5388.0736999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,10 +4320,10 @@
         <v>17</v>
       </c>
       <c r="C242">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="D242">
-        <v>4281.3467000000001</v>
+        <v>5522.1504000000004</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,10 +4334,10 @@
         <v>17</v>
       </c>
       <c r="C243">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="D243">
-        <v>4101.04</v>
+        <v>5655.1367</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,10 +4348,10 @@
         <v>17</v>
       </c>
       <c r="C244">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="D244">
-        <v>4042.3733000000002</v>
+        <v>5783.9589999999998</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,10 +4362,10 @@
         <v>17</v>
       </c>
       <c r="C245">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D245">
-        <v>4006.665</v>
+        <v>5748.1769999999997</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,10 +4376,10 @@
         <v>17</v>
       </c>
       <c r="C246">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D246">
-        <v>3976.3622999999998</v>
+        <v>5830.85</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,10 +4390,10 @@
         <v>17</v>
       </c>
       <c r="C247">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D247">
-        <v>3867.6333</v>
+        <v>5958.2304999999997</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,10 +4404,10 @@
         <v>17</v>
       </c>
       <c r="C248">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D248">
-        <v>3783.9050000000002</v>
+        <v>6041.3630000000003</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,10 +4418,10 @@
         <v>17</v>
       </c>
       <c r="C249">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D249">
-        <v>3593.5337</v>
+        <v>6125.9354999999996</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,10 +4432,10 @@
         <v>17</v>
       </c>
       <c r="C250">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D250">
-        <v>3541.373</v>
+        <v>6189.7602999999999</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,10 +4446,10 @@
         <v>17</v>
       </c>
       <c r="C251">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D251">
-        <v>3546.8766999999998</v>
+        <v>6250.2016999999996</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,10 +4460,10 @@
         <v>17</v>
       </c>
       <c r="C252">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D252">
-        <v>3514.8438000000001</v>
+        <v>6333.1440000000002</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,10 +4474,10 @@
         <v>17</v>
       </c>
       <c r="C253">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D253">
-        <v>3751.6801999999998</v>
+        <v>6495.1120000000001</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4473,10 +4488,10 @@
         <v>17</v>
       </c>
       <c r="C254">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D254">
-        <v>3874.4780000000001</v>
+        <v>6495.8980000000001</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,10 +4502,10 @@
         <v>17</v>
       </c>
       <c r="C255">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D255">
-        <v>4028.8867</v>
+        <v>6604.5015000000003</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,10 +4516,10 @@
         <v>17</v>
       </c>
       <c r="C256">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D256">
-        <v>4597.0796</v>
+        <v>6668.5119999999997</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,10 +4530,10 @@
         <v>17</v>
       </c>
       <c r="C257">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D257">
-        <v>5216.9470000000001</v>
+        <v>6098.4462999999996</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,10 +4544,10 @@
         <v>17</v>
       </c>
       <c r="C258">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D258">
-        <v>6101.0522000000001</v>
+        <v>6266.0537000000004</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,10 +4558,10 @@
         <v>17</v>
       </c>
       <c r="C259">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D259">
-        <v>6594.6864999999998</v>
+        <v>6379.2515000000003</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,112 +4572,1567 @@
         <v>17</v>
       </c>
       <c r="C260">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D260">
-        <v>6311.5293000000001</v>
+        <v>6299.5050000000001</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C261">
-        <v>2017</v>
+        <v>1987</v>
       </c>
       <c r="D261">
-        <v>6677.491</v>
+        <v>2484.2624999999998</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C262">
-        <v>2018</v>
+        <v>1988</v>
       </c>
       <c r="D262">
-        <v>7787.2964000000002</v>
+        <v>3178.5789</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B263" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C263">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="D263">
-        <v>8733.7999999999993</v>
+        <v>3153.7424000000001</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B264" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C264">
-        <v>2020</v>
+        <v>1990</v>
       </c>
       <c r="D264">
-        <v>8295.8340000000007</v>
+        <v>3984.9459999999999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B265" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C265">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="D265">
-        <v>8326.07</v>
+        <v>4981.6616000000004</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C266">
-        <v>2022</v>
+        <v>1992</v>
       </c>
       <c r="D266">
-        <v>8863.0820000000003</v>
+        <v>5141.3649999999998</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C267">
+        <v>1993</v>
+      </c>
+      <c r="D267">
+        <v>4992.8829999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268">
+        <v>1994</v>
+      </c>
+      <c r="D268">
+        <v>5026.3212999999996</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269">
+        <v>1995</v>
+      </c>
+      <c r="D269">
+        <v>5015.5874000000003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>1996</v>
+      </c>
+      <c r="D270">
+        <v>5087.3779999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271">
+        <v>1997</v>
+      </c>
+      <c r="D271">
+        <v>5024.4160000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272">
+        <v>1998</v>
+      </c>
+      <c r="D272">
+        <v>5178.7772999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273">
+        <v>1999</v>
+      </c>
+      <c r="D273">
+        <v>4751.1566999999995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>19</v>
+      </c>
+      <c r="C274">
+        <v>2000</v>
+      </c>
+      <c r="D274">
+        <v>5099.9459999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275">
+        <v>2001</v>
+      </c>
+      <c r="D275">
+        <v>4974.1143000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276">
+        <v>2002</v>
+      </c>
+      <c r="D276">
+        <v>4536.3173999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277">
+        <v>2003</v>
+      </c>
+      <c r="D277">
+        <v>5355.6122999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>19</v>
+      </c>
+      <c r="C278">
+        <v>2004</v>
+      </c>
+      <c r="D278">
+        <v>5731.1166999999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" t="s">
+        <v>19</v>
+      </c>
+      <c r="C279">
+        <v>2005</v>
+      </c>
+      <c r="D279">
+        <v>6008.3856999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280">
+        <v>2006</v>
+      </c>
+      <c r="D280">
+        <v>5918.9785000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281">
+        <v>2007</v>
+      </c>
+      <c r="D281">
+        <v>5686.37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282">
+        <v>2008</v>
+      </c>
+      <c r="D282">
+        <v>5930.9994999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>19</v>
+      </c>
+      <c r="C283">
+        <v>2009</v>
+      </c>
+      <c r="D283">
+        <v>5338.2543999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284">
+        <v>2010</v>
+      </c>
+      <c r="D284">
+        <v>5388.1864999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" t="s">
+        <v>19</v>
+      </c>
+      <c r="C285">
+        <v>2011</v>
+      </c>
+      <c r="D285">
+        <v>6079.0069999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286">
+        <v>2012</v>
+      </c>
+      <c r="D286">
+        <v>6387.4926999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287">
+        <v>2013</v>
+      </c>
+      <c r="D287">
+        <v>6261.7439999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288">
+        <v>2014</v>
+      </c>
+      <c r="D288">
+        <v>6324.6679999999997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289">
+        <v>2015</v>
+      </c>
+      <c r="D289">
+        <v>6606.2380000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290">
+        <v>2016</v>
+      </c>
+      <c r="D290">
+        <v>6823.4633999999996</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" t="s">
+        <v>19</v>
+      </c>
+      <c r="C291">
+        <v>2017</v>
+      </c>
+      <c r="D291">
+        <v>6504.8850000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292">
+        <v>2018</v>
+      </c>
+      <c r="D292">
+        <v>6708.3890000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293">
+        <v>2019</v>
+      </c>
+      <c r="D293">
+        <v>6472.84</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>2020</v>
+      </c>
+      <c r="D294">
+        <v>6042.7489999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295" t="s">
+        <v>19</v>
+      </c>
+      <c r="C295">
+        <v>2021</v>
+      </c>
+      <c r="D295">
+        <v>5989.7179999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296" t="s">
+        <v>19</v>
+      </c>
+      <c r="C296">
+        <v>2022</v>
+      </c>
+      <c r="D296">
+        <v>6678.308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" t="s">
+        <v>19</v>
+      </c>
+      <c r="C297">
         <v>2023</v>
       </c>
-      <c r="D267">
+      <c r="D297">
+        <v>6183.4179999999997</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298" t="s">
+        <v>21</v>
+      </c>
+      <c r="C298">
+        <v>1987</v>
+      </c>
+      <c r="D298">
+        <v>793.14495999999997</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>20</v>
+      </c>
+      <c r="B299" t="s">
+        <v>21</v>
+      </c>
+      <c r="C299">
+        <v>1988</v>
+      </c>
+      <c r="D299">
+        <v>837.89469999999994</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300" t="s">
+        <v>21</v>
+      </c>
+      <c r="C300">
+        <v>1989</v>
+      </c>
+      <c r="D300">
+        <v>989.44775000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>20</v>
+      </c>
+      <c r="B301" t="s">
+        <v>21</v>
+      </c>
+      <c r="C301">
+        <v>1990</v>
+      </c>
+      <c r="D301">
+        <v>1083.3516</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>20</v>
+      </c>
+      <c r="B302" t="s">
+        <v>21</v>
+      </c>
+      <c r="C302">
+        <v>1991</v>
+      </c>
+      <c r="D302">
+        <v>1242.6837</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>20</v>
+      </c>
+      <c r="B303" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303">
+        <v>1992</v>
+      </c>
+      <c r="D303">
+        <v>1368.6174000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>20</v>
+      </c>
+      <c r="B304" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304">
+        <v>1993</v>
+      </c>
+      <c r="D304">
+        <v>1330.0209</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305">
+        <v>1994</v>
+      </c>
+      <c r="D305">
+        <v>1341.0413000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>20</v>
+      </c>
+      <c r="B306" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306">
+        <v>1995</v>
+      </c>
+      <c r="D306">
+        <v>1330.6033</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>20</v>
+      </c>
+      <c r="B307" t="s">
+        <v>21</v>
+      </c>
+      <c r="C307">
+        <v>1996</v>
+      </c>
+      <c r="D307">
+        <v>1359.7686000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308" t="s">
+        <v>21</v>
+      </c>
+      <c r="C308">
+        <v>1997</v>
+      </c>
+      <c r="D308">
+        <v>1364.287</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>20</v>
+      </c>
+      <c r="B309" t="s">
+        <v>21</v>
+      </c>
+      <c r="C309">
+        <v>1998</v>
+      </c>
+      <c r="D309">
+        <v>1413.2999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>20</v>
+      </c>
+      <c r="B310" t="s">
+        <v>21</v>
+      </c>
+      <c r="C310">
+        <v>1999</v>
+      </c>
+      <c r="D310">
+        <v>1302.896</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>20</v>
+      </c>
+      <c r="B311" t="s">
+        <v>21</v>
+      </c>
+      <c r="C311">
+        <v>2000</v>
+      </c>
+      <c r="D311">
+        <v>1413.3167000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>20</v>
+      </c>
+      <c r="B312" t="s">
+        <v>21</v>
+      </c>
+      <c r="C312">
+        <v>2001</v>
+      </c>
+      <c r="D312">
+        <v>1377.1503</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>20</v>
+      </c>
+      <c r="B313" t="s">
+        <v>21</v>
+      </c>
+      <c r="C313">
+        <v>2002</v>
+      </c>
+      <c r="D313">
+        <v>1267.8834999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+      <c r="B314" t="s">
+        <v>21</v>
+      </c>
+      <c r="C314">
+        <v>2003</v>
+      </c>
+      <c r="D314">
+        <v>1467.5858000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" t="s">
+        <v>21</v>
+      </c>
+      <c r="C315">
+        <v>2004</v>
+      </c>
+      <c r="D315">
+        <v>1526.739</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316" t="s">
+        <v>21</v>
+      </c>
+      <c r="C316">
+        <v>2005</v>
+      </c>
+      <c r="D316">
+        <v>1588.1107999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>20</v>
+      </c>
+      <c r="B317" t="s">
+        <v>21</v>
+      </c>
+      <c r="C317">
+        <v>2006</v>
+      </c>
+      <c r="D317">
+        <v>1693.9802</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>20</v>
+      </c>
+      <c r="B318" t="s">
+        <v>21</v>
+      </c>
+      <c r="C318">
+        <v>2007</v>
+      </c>
+      <c r="D318">
+        <v>1670.5735</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>20</v>
+      </c>
+      <c r="B319" t="s">
+        <v>21</v>
+      </c>
+      <c r="C319">
+        <v>2008</v>
+      </c>
+      <c r="D319">
+        <v>1689.2213999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>20</v>
+      </c>
+      <c r="B320" t="s">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>2009</v>
+      </c>
+      <c r="D320">
+        <v>1498.1176</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>20</v>
+      </c>
+      <c r="B321" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321">
+        <v>2010</v>
+      </c>
+      <c r="D321">
+        <v>1561.2548999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>20</v>
+      </c>
+      <c r="B322" t="s">
+        <v>21</v>
+      </c>
+      <c r="C322">
+        <v>2011</v>
+      </c>
+      <c r="D322">
+        <v>1737.4957999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>20</v>
+      </c>
+      <c r="B323" t="s">
+        <v>21</v>
+      </c>
+      <c r="C323">
+        <v>2012</v>
+      </c>
+      <c r="D323">
+        <v>1801.5314000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>20</v>
+      </c>
+      <c r="B324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324">
+        <v>2013</v>
+      </c>
+      <c r="D324">
+        <v>1879.6893</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>20</v>
+      </c>
+      <c r="B325" t="s">
+        <v>21</v>
+      </c>
+      <c r="C325">
+        <v>2014</v>
+      </c>
+      <c r="D325">
+        <v>1895.0092999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>20</v>
+      </c>
+      <c r="B326" t="s">
+        <v>21</v>
+      </c>
+      <c r="C326">
+        <v>2015</v>
+      </c>
+      <c r="D326">
+        <v>2036.3232</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>20</v>
+      </c>
+      <c r="B327" t="s">
+        <v>21</v>
+      </c>
+      <c r="C327">
+        <v>2016</v>
+      </c>
+      <c r="D327">
+        <v>2112.0898000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>20</v>
+      </c>
+      <c r="B328" t="s">
+        <v>21</v>
+      </c>
+      <c r="C328">
+        <v>2017</v>
+      </c>
+      <c r="D328">
+        <v>2034.374</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>20</v>
+      </c>
+      <c r="B329" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329">
+        <v>2018</v>
+      </c>
+      <c r="D329">
+        <v>2046.3977</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>20</v>
+      </c>
+      <c r="B330" t="s">
+        <v>21</v>
+      </c>
+      <c r="C330">
+        <v>2019</v>
+      </c>
+      <c r="D330">
+        <v>2092.2188000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>20</v>
+      </c>
+      <c r="B331" t="s">
+        <v>21</v>
+      </c>
+      <c r="C331">
+        <v>2020</v>
+      </c>
+      <c r="D331">
+        <v>1929.9458999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>20</v>
+      </c>
+      <c r="B332" t="s">
+        <v>21</v>
+      </c>
+      <c r="C332">
+        <v>2021</v>
+      </c>
+      <c r="D332">
+        <v>1900.77</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>20</v>
+      </c>
+      <c r="B333" t="s">
+        <v>21</v>
+      </c>
+      <c r="C333">
+        <v>2022</v>
+      </c>
+      <c r="D333">
+        <v>2106.4877999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>20</v>
+      </c>
+      <c r="B334" t="s">
+        <v>21</v>
+      </c>
+      <c r="C334">
+        <v>2023</v>
+      </c>
+      <c r="D334">
+        <v>2047.6648</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335">
+        <v>1987</v>
+      </c>
+      <c r="D335">
+        <v>5434.2372999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336">
+        <v>1988</v>
+      </c>
+      <c r="D336">
+        <v>5338.8905999999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337">
+        <v>1989</v>
+      </c>
+      <c r="D337">
+        <v>4989.6549999999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338">
+        <v>1990</v>
+      </c>
+      <c r="D338">
+        <v>4845.259</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>22</v>
+      </c>
+      <c r="B339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339">
+        <v>1991</v>
+      </c>
+      <c r="D339">
+        <v>4918.2885999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>22</v>
+      </c>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340">
+        <v>1992</v>
+      </c>
+      <c r="D340">
+        <v>4803.5604999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341">
+        <v>1993</v>
+      </c>
+      <c r="D341">
+        <v>4617.1854999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>22</v>
+      </c>
+      <c r="B342" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342">
+        <v>1994</v>
+      </c>
+      <c r="D342">
+        <v>4506.6176999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>22</v>
+      </c>
+      <c r="B343" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343">
+        <v>1995</v>
+      </c>
+      <c r="D343">
+        <v>4460.7299999999996</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>22</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344">
+        <v>1996</v>
+      </c>
+      <c r="D344">
+        <v>4443.3339999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345" t="s">
+        <v>23</v>
+      </c>
+      <c r="C345">
+        <v>1997</v>
+      </c>
+      <c r="D345">
+        <v>4418.8193000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>22</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346">
+        <v>1998</v>
+      </c>
+      <c r="D346">
+        <v>4281.3467000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>22</v>
+      </c>
+      <c r="B347" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347">
+        <v>1999</v>
+      </c>
+      <c r="D347">
+        <v>4101.04</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>22</v>
+      </c>
+      <c r="B348" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348">
+        <v>2000</v>
+      </c>
+      <c r="D348">
+        <v>4042.3733000000002</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>22</v>
+      </c>
+      <c r="B349" t="s">
+        <v>23</v>
+      </c>
+      <c r="C349">
+        <v>2001</v>
+      </c>
+      <c r="D349">
+        <v>4006.665</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>22</v>
+      </c>
+      <c r="B350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350">
+        <v>2002</v>
+      </c>
+      <c r="D350">
+        <v>3976.3622999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>22</v>
+      </c>
+      <c r="B351" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351">
+        <v>2003</v>
+      </c>
+      <c r="D351">
+        <v>3867.6333</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>22</v>
+      </c>
+      <c r="B352" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352">
+        <v>2004</v>
+      </c>
+      <c r="D352">
+        <v>3783.9050000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>22</v>
+      </c>
+      <c r="B353" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353">
+        <v>2005</v>
+      </c>
+      <c r="D353">
+        <v>3593.5337</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>22</v>
+      </c>
+      <c r="B354" t="s">
+        <v>23</v>
+      </c>
+      <c r="C354">
+        <v>2006</v>
+      </c>
+      <c r="D354">
+        <v>3541.373</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355">
+        <v>2007</v>
+      </c>
+      <c r="D355">
+        <v>3546.8766999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356">
+        <v>2008</v>
+      </c>
+      <c r="D356">
+        <v>3514.8438000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>22</v>
+      </c>
+      <c r="B357" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357">
+        <v>2009</v>
+      </c>
+      <c r="D357">
+        <v>3751.6801999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>22</v>
+      </c>
+      <c r="B358" t="s">
+        <v>23</v>
+      </c>
+      <c r="C358">
+        <v>2010</v>
+      </c>
+      <c r="D358">
+        <v>3874.4780000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>22</v>
+      </c>
+      <c r="B359" t="s">
+        <v>23</v>
+      </c>
+      <c r="C359">
+        <v>2011</v>
+      </c>
+      <c r="D359">
+        <v>4028.8867</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>22</v>
+      </c>
+      <c r="B360" t="s">
+        <v>23</v>
+      </c>
+      <c r="C360">
+        <v>2012</v>
+      </c>
+      <c r="D360">
+        <v>4597.0796</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" t="s">
+        <v>23</v>
+      </c>
+      <c r="C361">
+        <v>2013</v>
+      </c>
+      <c r="D361">
+        <v>5216.9470000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>22</v>
+      </c>
+      <c r="B362" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362">
+        <v>2014</v>
+      </c>
+      <c r="D362">
+        <v>6101.0522000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="B363" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363">
+        <v>2015</v>
+      </c>
+      <c r="D363">
+        <v>6594.6864999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>22</v>
+      </c>
+      <c r="B364" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364">
+        <v>2016</v>
+      </c>
+      <c r="D364">
+        <v>6311.5293000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>22</v>
+      </c>
+      <c r="B365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365">
+        <v>2017</v>
+      </c>
+      <c r="D365">
+        <v>6677.491</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366">
+        <v>2018</v>
+      </c>
+      <c r="D366">
+        <v>7787.2964000000002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>22</v>
+      </c>
+      <c r="B367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367">
+        <v>2019</v>
+      </c>
+      <c r="D367">
+        <v>8733.7999999999993</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>22</v>
+      </c>
+      <c r="B368" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368">
+        <v>2020</v>
+      </c>
+      <c r="D368">
+        <v>8295.8340000000007</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>22</v>
+      </c>
+      <c r="B369" t="s">
+        <v>23</v>
+      </c>
+      <c r="C369">
+        <v>2021</v>
+      </c>
+      <c r="D369">
+        <v>8326.07</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>22</v>
+      </c>
+      <c r="B370" t="s">
+        <v>23</v>
+      </c>
+      <c r="C370">
+        <v>2022</v>
+      </c>
+      <c r="D370">
+        <v>8863.0820000000003</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>22</v>
+      </c>
+      <c r="B371" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371">
+        <v>2023</v>
+      </c>
+      <c r="D371">
         <v>9619.6489999999994</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D267" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>